--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.297160282827391</v>
+        <v>0.7944363333333334</v>
       </c>
       <c r="H2">
-        <v>0.297160282827391</v>
+        <v>2.383309</v>
       </c>
       <c r="I2">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="J2">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>21.70128363672462</v>
+        <v>75.31244602898634</v>
       </c>
       <c r="R2">
-        <v>21.70128363672462</v>
+        <v>677.812014260877</v>
       </c>
       <c r="S2">
-        <v>0.007424399642854319</v>
+        <v>0.01937515100982586</v>
       </c>
       <c r="T2">
-        <v>0.007424399642854319</v>
+        <v>0.01937515100982586</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.297160282827391</v>
+        <v>0.7944363333333334</v>
       </c>
       <c r="H3">
-        <v>0.297160282827391</v>
+        <v>2.383309</v>
       </c>
       <c r="I3">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="J3">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>43.05545439768085</v>
+        <v>115.7027901385769</v>
       </c>
       <c r="R3">
-        <v>43.05545439768085</v>
+        <v>1041.325111247192</v>
       </c>
       <c r="S3">
-        <v>0.01473004572467395</v>
+        <v>0.02976611635121114</v>
       </c>
       <c r="T3">
-        <v>0.01473004572467395</v>
+        <v>0.02976611635121115</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.297160282827391</v>
+        <v>0.7944363333333334</v>
       </c>
       <c r="H4">
-        <v>0.297160282827391</v>
+        <v>2.383309</v>
       </c>
       <c r="I4">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="J4">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>20.21277080902892</v>
+        <v>57.8158752912009</v>
       </c>
       <c r="R4">
-        <v>20.21277080902892</v>
+        <v>520.3428776208081</v>
       </c>
       <c r="S4">
-        <v>0.006915152618976611</v>
+        <v>0.01487392022961432</v>
       </c>
       <c r="T4">
-        <v>0.006915152618976611</v>
+        <v>0.01487392022961432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.297160282827391</v>
+        <v>0.7944363333333334</v>
       </c>
       <c r="H5">
-        <v>0.297160282827391</v>
+        <v>2.383309</v>
       </c>
       <c r="I5">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="J5">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>22.6871341585909</v>
+        <v>60.68389584975446</v>
       </c>
       <c r="R5">
-        <v>22.6871341585909</v>
+        <v>546.1550626477901</v>
       </c>
       <c r="S5">
-        <v>0.007761676846589191</v>
+        <v>0.01561175752412834</v>
       </c>
       <c r="T5">
-        <v>0.007761676846589191</v>
+        <v>0.01561175752412834</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.297160282827391</v>
+        <v>0.7944363333333334</v>
       </c>
       <c r="H6">
-        <v>0.297160282827391</v>
+        <v>2.383309</v>
       </c>
       <c r="I6">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="J6">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>16.9416183557122</v>
+        <v>46.22577636192467</v>
       </c>
       <c r="R6">
-        <v>16.9416183557122</v>
+        <v>416.031987257322</v>
       </c>
       <c r="S6">
-        <v>0.00579603250089164</v>
+        <v>0.01189220965169578</v>
       </c>
       <c r="T6">
-        <v>0.00579603250089164</v>
+        <v>0.01189220965169578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.297160282827391</v>
+        <v>0.7944363333333334</v>
       </c>
       <c r="H7">
-        <v>0.297160282827391</v>
+        <v>2.383309</v>
       </c>
       <c r="I7">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="J7">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>32.01845656577068</v>
+        <v>92.02424104406388</v>
       </c>
       <c r="R7">
-        <v>32.01845656577068</v>
+        <v>828.2181693965749</v>
       </c>
       <c r="S7">
-        <v>0.01095409015756882</v>
+        <v>0.02367448756221668</v>
       </c>
       <c r="T7">
-        <v>0.01095409015756882</v>
+        <v>0.02367448756221668</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.41034651236232</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H8">
-        <v>4.41034651236232</v>
+        <v>13.997732</v>
       </c>
       <c r="I8">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290096</v>
       </c>
       <c r="J8">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290097</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>322.0826810715088</v>
+        <v>442.3276359793106</v>
       </c>
       <c r="R8">
-        <v>322.0826810715088</v>
+        <v>3980.948723813796</v>
       </c>
       <c r="S8">
-        <v>0.1101902810149984</v>
+        <v>0.1137948001266607</v>
       </c>
       <c r="T8">
-        <v>0.1101902810149984</v>
+        <v>0.1137948001266608</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.41034651236232</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H9">
-        <v>4.41034651236232</v>
+        <v>13.997732</v>
       </c>
       <c r="I9">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290096</v>
       </c>
       <c r="J9">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290097</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>639.0136371329481</v>
+        <v>679.5495875742683</v>
       </c>
       <c r="R9">
-        <v>639.0136371329481</v>
+        <v>6115.946288168416</v>
       </c>
       <c r="S9">
-        <v>0.2186180641996787</v>
+        <v>0.1748233734547519</v>
       </c>
       <c r="T9">
-        <v>0.2186180641996787</v>
+        <v>0.174823373454752</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.41034651236232</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H10">
-        <v>4.41034651236232</v>
+        <v>13.997732</v>
       </c>
       <c r="I10">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290096</v>
       </c>
       <c r="J10">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290097</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>299.9907066805449</v>
+        <v>339.5661778106204</v>
       </c>
       <c r="R10">
-        <v>299.9907066805449</v>
+        <v>3056.095600295584</v>
       </c>
       <c r="S10">
-        <v>0.1026322190347083</v>
+        <v>0.08735801743018623</v>
       </c>
       <c r="T10">
-        <v>0.1026322190347083</v>
+        <v>0.08735801743018624</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.41034651236232</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H11">
-        <v>4.41034651236232</v>
+        <v>13.997732</v>
       </c>
       <c r="I11">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290096</v>
       </c>
       <c r="J11">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290097</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>336.7143215096392</v>
+        <v>356.4107343281022</v>
       </c>
       <c r="R11">
-        <v>336.7143215096392</v>
+        <v>3207.69660895292</v>
       </c>
       <c r="S11">
-        <v>0.1151960285026444</v>
+        <v>0.09169150868466153</v>
       </c>
       <c r="T11">
-        <v>0.1151960285026444</v>
+        <v>0.09169150868466155</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.41034651236232</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H12">
-        <v>4.41034651236232</v>
+        <v>13.997732</v>
       </c>
       <c r="I12">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290096</v>
       </c>
       <c r="J12">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290097</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>251.4414332829594</v>
+        <v>271.4948120475173</v>
       </c>
       <c r="R12">
-        <v>251.4414332829594</v>
+        <v>2443.453308427656</v>
       </c>
       <c r="S12">
-        <v>0.08602263896987332</v>
+        <v>0.06984573279933522</v>
       </c>
       <c r="T12">
-        <v>0.08602263896987332</v>
+        <v>0.06984573279933524</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.41034651236232</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H13">
-        <v>4.41034651236232</v>
+        <v>13.997732</v>
       </c>
       <c r="I13">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290096</v>
       </c>
       <c r="J13">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290097</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>475.2064673733539</v>
+        <v>540.4799225103443</v>
       </c>
       <c r="R13">
-        <v>475.2064673733539</v>
+        <v>4864.319302593099</v>
       </c>
       <c r="S13">
-        <v>0.1625766837441</v>
+        <v>0.1390458107334141</v>
       </c>
       <c r="T13">
-        <v>0.1625766837441</v>
+        <v>0.1390458107334141</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0557050593709434</v>
+        <v>0.001148666666666667</v>
       </c>
       <c r="H14">
-        <v>0.0557050593709434</v>
+        <v>0.003446</v>
       </c>
       <c r="I14">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="J14">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>4.068078283905842</v>
+        <v>0.1088934288486667</v>
       </c>
       <c r="R14">
-        <v>4.068078283905842</v>
+        <v>0.980040859638</v>
       </c>
       <c r="S14">
-        <v>0.00139176278526778</v>
+        <v>2.801431555029578E-05</v>
       </c>
       <c r="T14">
-        <v>0.00139176278526778</v>
+        <v>2.801431555029579E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0557050593709434</v>
+        <v>0.001148666666666667</v>
       </c>
       <c r="H15">
-        <v>0.0557050593709434</v>
+        <v>0.003446</v>
       </c>
       <c r="I15">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="J15">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>8.071087497446287</v>
+        <v>0.1672933785831111</v>
       </c>
       <c r="R15">
-        <v>8.071087497446287</v>
+        <v>1.505640407248</v>
       </c>
       <c r="S15">
-        <v>0.002761264270657234</v>
+        <v>4.303849687399896E-05</v>
       </c>
       <c r="T15">
-        <v>0.002761264270657234</v>
+        <v>4.303849687399897E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.0557050593709434</v>
+        <v>0.001148666666666667</v>
       </c>
       <c r="H16">
-        <v>0.0557050593709434</v>
+        <v>0.003446</v>
       </c>
       <c r="I16">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="J16">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>3.789044711006184</v>
+        <v>0.08359533163911111</v>
       </c>
       <c r="R16">
-        <v>3.789044711006184</v>
+        <v>0.752357984752</v>
       </c>
       <c r="S16">
-        <v>0.001296300378819399</v>
+        <v>2.150603598243071E-05</v>
       </c>
       <c r="T16">
-        <v>0.001296300378819399</v>
+        <v>2.150603598243071E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.0557050593709434</v>
+        <v>0.001148666666666667</v>
       </c>
       <c r="H17">
-        <v>0.0557050593709434</v>
+        <v>0.003446</v>
       </c>
       <c r="I17">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="J17">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>4.252883808146563</v>
+        <v>0.08774217069555555</v>
       </c>
       <c r="R17">
-        <v>4.252883808146563</v>
+        <v>0.7896795362600001</v>
       </c>
       <c r="S17">
-        <v>0.001454988080652998</v>
+        <v>2.257286672779159E-05</v>
       </c>
       <c r="T17">
-        <v>0.001454988080652998</v>
+        <v>2.25728667277916E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.0557050593709434</v>
+        <v>0.001148666666666667</v>
       </c>
       <c r="H18">
-        <v>0.0557050593709434</v>
+        <v>0.003446</v>
       </c>
       <c r="I18">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="J18">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>3.175841156716732</v>
+        <v>0.06683733638533332</v>
       </c>
       <c r="R18">
-        <v>3.175841156716732</v>
+        <v>0.6015360274679999</v>
       </c>
       <c r="S18">
-        <v>0.001086512408408321</v>
+        <v>1.719481379029897E-05</v>
       </c>
       <c r="T18">
-        <v>0.001086512408408321</v>
+        <v>1.719481379029897E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.0557050593709434</v>
+        <v>0.001148666666666667</v>
       </c>
       <c r="H19">
-        <v>0.0557050593709434</v>
+        <v>0.003446</v>
       </c>
       <c r="I19">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="J19">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>6.002114438012726</v>
+        <v>0.1330568275611111</v>
       </c>
       <c r="R19">
-        <v>6.002114438012726</v>
+        <v>1.19751144805</v>
       </c>
       <c r="S19">
-        <v>0.002053431356223599</v>
+        <v>3.423067849758411E-05</v>
       </c>
       <c r="T19">
-        <v>0.002053431356223599</v>
+        <v>3.423067849758411E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.782748063230389</v>
+        <v>0.152494</v>
       </c>
       <c r="H20">
-        <v>0.782748063230389</v>
+        <v>0.4574820000000001</v>
       </c>
       <c r="I20">
-        <v>0.141138427762413</v>
+        <v>0.02211170178932515</v>
       </c>
       <c r="J20">
-        <v>0.141138427762413</v>
+        <v>0.02211170178932515</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>57.16321701755283</v>
+        <v>14.456408478394</v>
       </c>
       <c r="R20">
-        <v>57.16321701755283</v>
+        <v>130.107676305546</v>
       </c>
       <c r="S20">
-        <v>0.01955656518360581</v>
+        <v>0.003719107691985031</v>
       </c>
       <c r="T20">
-        <v>0.01955656518360581</v>
+        <v>0.003719107691985032</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.782748063230389</v>
+        <v>0.152494</v>
       </c>
       <c r="H21">
-        <v>0.782748063230389</v>
+        <v>0.4574820000000001</v>
       </c>
       <c r="I21">
-        <v>0.141138427762413</v>
+        <v>0.02211170178932515</v>
       </c>
       <c r="J21">
-        <v>0.141138427762413</v>
+        <v>0.02211170178932515</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>113.4121061557374</v>
+        <v>22.20943395849067</v>
       </c>
       <c r="R21">
-        <v>113.4121061557374</v>
+        <v>199.884905626416</v>
       </c>
       <c r="S21">
-        <v>0.03880032234651254</v>
+        <v>0.005713678939904467</v>
       </c>
       <c r="T21">
-        <v>0.03880032234651254</v>
+        <v>0.005713678939904469</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.782748063230389</v>
+        <v>0.152494</v>
       </c>
       <c r="H22">
-        <v>0.782748063230389</v>
+        <v>0.4574820000000001</v>
       </c>
       <c r="I22">
-        <v>0.141138427762413</v>
+        <v>0.02211170178932515</v>
       </c>
       <c r="J22">
-        <v>0.141138427762413</v>
+        <v>0.02211170178932515</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>53.24233458371433</v>
+        <v>11.09789887084267</v>
       </c>
       <c r="R22">
-        <v>53.24233458371433</v>
+        <v>99.88108983758401</v>
       </c>
       <c r="S22">
-        <v>0.01821516074740915</v>
+        <v>0.002855085418837599</v>
       </c>
       <c r="T22">
-        <v>0.01821516074740915</v>
+        <v>0.002855085418837599</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.782748063230389</v>
+        <v>0.152494</v>
       </c>
       <c r="H23">
-        <v>0.782748063230389</v>
+        <v>0.4574820000000001</v>
       </c>
       <c r="I23">
-        <v>0.141138427762413</v>
+        <v>0.02211170178932515</v>
       </c>
       <c r="J23">
-        <v>0.141138427762413</v>
+        <v>0.02211170178932515</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>59.76003978028299</v>
+        <v>11.64842244171334</v>
       </c>
       <c r="R23">
-        <v>59.76003978028299</v>
+        <v>104.83580197542</v>
       </c>
       <c r="S23">
-        <v>0.02044498498009854</v>
+        <v>0.002996715094707938</v>
       </c>
       <c r="T23">
-        <v>0.02044498498009854</v>
+        <v>0.002996715094707939</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.782748063230389</v>
+        <v>0.152494</v>
       </c>
       <c r="H24">
-        <v>0.782748063230389</v>
+        <v>0.4574820000000001</v>
       </c>
       <c r="I24">
-        <v>0.141138427762413</v>
+        <v>0.02211170178932515</v>
       </c>
       <c r="J24">
-        <v>0.141138427762413</v>
+        <v>0.02211170178932515</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>44.62581213662712</v>
+        <v>8.873150993684</v>
       </c>
       <c r="R24">
-        <v>44.62581213662712</v>
+        <v>79.85835894315601</v>
       </c>
       <c r="S24">
-        <v>0.01526729336547506</v>
+        <v>0.002282738770288321</v>
       </c>
       <c r="T24">
-        <v>0.01526729336547506</v>
+        <v>0.002282738770288322</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.152494</v>
+      </c>
+      <c r="H25">
+        <v>0.4574820000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.02211170178932515</v>
+      </c>
+      <c r="J25">
+        <v>0.02211170178932515</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N25">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O25">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P25">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q25">
+        <v>17.66427846381667</v>
+      </c>
+      <c r="R25">
+        <v>158.97850617435</v>
+      </c>
+      <c r="S25">
+        <v>0.004544375873601792</v>
+      </c>
+      <c r="T25">
+        <v>0.004544375873601792</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.0003876666666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.001163</v>
+      </c>
+      <c r="I26">
+        <v>5.621184916780363E-05</v>
+      </c>
+      <c r="J26">
+        <v>5.621184916780364E-05</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>94.799851</v>
+      </c>
+      <c r="N26">
+        <v>284.399553</v>
+      </c>
+      <c r="O26">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P26">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q26">
+        <v>0.03675074223766667</v>
+      </c>
+      <c r="R26">
+        <v>0.330756680139</v>
+      </c>
+      <c r="S26">
+        <v>9.454628260300056E-06</v>
+      </c>
+      <c r="T26">
+        <v>9.454628260300059E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.0003876666666666666</v>
+      </c>
+      <c r="H27">
+        <v>0.001163</v>
+      </c>
+      <c r="I27">
+        <v>5.621184916780363E-05</v>
+      </c>
+      <c r="J27">
+        <v>5.621184916780364E-05</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N27">
+        <v>436.924088</v>
+      </c>
+      <c r="O27">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P27">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q27">
+        <v>0.05646030159377777</v>
+      </c>
+      <c r="R27">
+        <v>0.5081427143439999</v>
+      </c>
+      <c r="S27">
+        <v>1.45251804597971E-05</v>
+      </c>
+      <c r="T27">
+        <v>1.45251804597971E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.0003876666666666666</v>
+      </c>
+      <c r="H28">
+        <v>0.001163</v>
+      </c>
+      <c r="I28">
+        <v>5.621184916780363E-05</v>
+      </c>
+      <c r="J28">
+        <v>5.621184916780364E-05</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N28">
+        <v>218.327912</v>
+      </c>
+      <c r="O28">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P28">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q28">
+        <v>0.02821281796177778</v>
+      </c>
+      <c r="R28">
+        <v>0.253915361656</v>
+      </c>
+      <c r="S28">
+        <v>7.258131122335146E-06</v>
+      </c>
+      <c r="T28">
+        <v>7.258131122335147E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.0003876666666666666</v>
+      </c>
+      <c r="H29">
+        <v>0.001163</v>
+      </c>
+      <c r="I29">
+        <v>5.621184916780363E-05</v>
+      </c>
+      <c r="J29">
+        <v>5.621184916780364E-05</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N29">
+        <v>229.15831</v>
+      </c>
+      <c r="O29">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P29">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q29">
+        <v>0.02961234605888889</v>
+      </c>
+      <c r="R29">
+        <v>0.26651111453</v>
+      </c>
+      <c r="S29">
+        <v>7.618178759263384E-06</v>
+      </c>
+      <c r="T29">
+        <v>7.618178759263386E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.0003876666666666666</v>
+      </c>
+      <c r="H30">
+        <v>0.001163</v>
+      </c>
+      <c r="I30">
+        <v>5.621184916780363E-05</v>
+      </c>
+      <c r="J30">
+        <v>5.621184916780364E-05</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N30">
+        <v>174.560658</v>
+      </c>
+      <c r="O30">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P30">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q30">
+        <v>0.02255711613933333</v>
+      </c>
+      <c r="R30">
+        <v>0.203014045254</v>
+      </c>
+      <c r="S30">
+        <v>5.8031249094944E-06</v>
+      </c>
+      <c r="T30">
+        <v>5.803124909494402E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.0003876666666666666</v>
+      </c>
+      <c r="H31">
+        <v>0.001163</v>
+      </c>
+      <c r="I31">
+        <v>5.621184916780363E-05</v>
+      </c>
+      <c r="J31">
+        <v>5.621184916780364E-05</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N31">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q31">
+        <v>0.04490571400277777</v>
+      </c>
+      <c r="R31">
+        <v>0.4041514260249999</v>
+      </c>
+      <c r="S31">
+        <v>1.155260565661356E-05</v>
+      </c>
+      <c r="T31">
+        <v>1.155260565661356E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.282152</v>
+      </c>
+      <c r="H32">
+        <v>3.846456</v>
+      </c>
+      <c r="I32">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="J32">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>94.799851</v>
+      </c>
+      <c r="N32">
+        <v>284.399553</v>
+      </c>
+      <c r="O32">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P32">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q32">
+        <v>121.547818559352</v>
+      </c>
+      <c r="R32">
+        <v>1093.930367034168</v>
+      </c>
+      <c r="S32">
+        <v>0.03126982940636348</v>
+      </c>
+      <c r="T32">
+        <v>0.03126982940636348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.282152</v>
+      </c>
+      <c r="H33">
+        <v>3.846456</v>
+      </c>
+      <c r="I33">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="J33">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N33">
+        <v>436.924088</v>
+      </c>
+      <c r="O33">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P33">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q33">
+        <v>186.734364425792</v>
+      </c>
+      <c r="R33">
+        <v>1680.609279832128</v>
+      </c>
+      <c r="S33">
+        <v>0.0480399548844964</v>
+      </c>
+      <c r="T33">
+        <v>0.04803995488449641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.282152</v>
+      </c>
+      <c r="H34">
+        <v>3.846456</v>
+      </c>
+      <c r="I34">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="J34">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N34">
+        <v>218.327912</v>
+      </c>
+      <c r="O34">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P34">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q34">
+        <v>93.30985634220801</v>
+      </c>
+      <c r="R34">
+        <v>839.7887070798721</v>
+      </c>
+      <c r="S34">
+        <v>0.02400522958236695</v>
+      </c>
+      <c r="T34">
+        <v>0.02400522958236695</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.782748063230389</v>
-      </c>
-      <c r="H25">
-        <v>0.782748063230389</v>
-      </c>
-      <c r="I25">
-        <v>0.141138427762413</v>
-      </c>
-      <c r="J25">
-        <v>0.141138427762413</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>107.748102341015</v>
-      </c>
-      <c r="N25">
-        <v>107.748102341015</v>
-      </c>
-      <c r="O25">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="P25">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="Q25">
-        <v>84.33961842417924</v>
-      </c>
-      <c r="R25">
-        <v>84.33961842417924</v>
-      </c>
-      <c r="S25">
-        <v>0.02885410113931187</v>
-      </c>
-      <c r="T25">
-        <v>0.02885410113931187</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.282152</v>
+      </c>
+      <c r="H35">
+        <v>3.846456</v>
+      </c>
+      <c r="I35">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="J35">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N35">
+        <v>229.15831</v>
+      </c>
+      <c r="O35">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P35">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q35">
+        <v>97.93859516104003</v>
+      </c>
+      <c r="R35">
+        <v>881.4473564493602</v>
+      </c>
+      <c r="S35">
+        <v>0.02519603559556424</v>
+      </c>
+      <c r="T35">
+        <v>0.02519603559556424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.282152</v>
+      </c>
+      <c r="H36">
+        <v>3.846456</v>
+      </c>
+      <c r="I36">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="J36">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N36">
+        <v>174.560658</v>
+      </c>
+      <c r="O36">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P36">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q36">
+        <v>74.60443225867201</v>
+      </c>
+      <c r="R36">
+        <v>671.439890328048</v>
+      </c>
+      <c r="S36">
+        <v>0.01919300483824093</v>
+      </c>
+      <c r="T36">
+        <v>0.01919300483824093</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.282152</v>
+      </c>
+      <c r="H37">
+        <v>3.846456</v>
+      </c>
+      <c r="I37">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="J37">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N37">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O37">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P37">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q37">
+        <v>148.5192201722</v>
+      </c>
+      <c r="R37">
+        <v>1336.6729815498</v>
+      </c>
+      <c r="S37">
+        <v>0.03820858928935096</v>
+      </c>
+      <c r="T37">
+        <v>0.03820858928935096</v>
       </c>
     </row>
   </sheetData>
